--- a/src/import/external/sklearn/data_xyz.xlsx
+++ b/src/import/external/sklearn/data_xyz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\src\import\external\sklearn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD19E13F-B82E-475C-ABD4-CB68361E8139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEF332B-DF02-4C49-8988-F77C1CA069AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="885" windowWidth="20850" windowHeight="14340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6960" yWindow="885" windowWidth="20850" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -2905,8 +2905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C059FDAB-814E-4ECD-8467-44C2D8654EDE}">
   <dimension ref="A1:C122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4383,7 +4383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
